--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Angptl3</t>
+  </si>
+  <si>
+    <t>Itgav</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Angptl3</t>
-  </si>
-  <si>
-    <t>Itgav</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>1.360798</v>
       </c>
       <c r="I2">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J2">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N2">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O2">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P2">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q2">
-        <v>6.799188651056666</v>
+        <v>9.332507814972001</v>
       </c>
       <c r="R2">
-        <v>40.79513190634</v>
+        <v>55.995046889832</v>
       </c>
       <c r="S2">
-        <v>0.006913578617591888</v>
+        <v>0.0102159325096487</v>
       </c>
       <c r="T2">
-        <v>0.005286573845682787</v>
+        <v>0.008166347179743884</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>1.360798</v>
       </c>
       <c r="I3">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J3">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>174.766479</v>
       </c>
       <c r="O3">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P3">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q3">
         <v>26.42465278780466</v>
@@ -641,10 +641,10 @@
         <v>237.821875090242</v>
       </c>
       <c r="S3">
-        <v>0.0268692227656699</v>
+        <v>0.0289260373335056</v>
       </c>
       <c r="T3">
-        <v>0.03081894446792854</v>
+        <v>0.03468406773094903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -673,10 +673,10 @@
         <v>1.360798</v>
       </c>
       <c r="I4">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J4">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N4">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O4">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P4">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q4">
-        <v>36.36910329858866</v>
+        <v>27.00538512788733</v>
       </c>
       <c r="R4">
-        <v>327.3219296872979</v>
+        <v>243.048466150986</v>
       </c>
       <c r="S4">
-        <v>0.03698097932126602</v>
+        <v>0.02956174238836096</v>
       </c>
       <c r="T4">
-        <v>0.0424171088985832</v>
+        <v>0.03544631652864281</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -735,10 +735,10 @@
         <v>1.360798</v>
       </c>
       <c r="I5">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J5">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N5">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O5">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P5">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q5">
-        <v>11.66138476976133</v>
+        <v>14.410956962244</v>
       </c>
       <c r="R5">
-        <v>69.968308618568</v>
+        <v>86.465741773464</v>
       </c>
       <c r="S5">
-        <v>0.01185757662176415</v>
+        <v>0.01577511282546711</v>
       </c>
       <c r="T5">
-        <v>0.009067077690024527</v>
+        <v>0.01261020939701028</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>1.360798</v>
       </c>
       <c r="I6">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J6">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N6">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O6">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P6">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q6">
-        <v>5.318911225858666</v>
+        <v>14.27272271661044</v>
       </c>
       <c r="R6">
-        <v>47.870201032728</v>
+        <v>128.454504449494</v>
       </c>
       <c r="S6">
-        <v>0.005408396914277567</v>
+        <v>0.01562379318535397</v>
       </c>
       <c r="T6">
-        <v>0.006203420382319374</v>
+        <v>0.01873387269771194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>1.360798</v>
       </c>
       <c r="I7">
-        <v>0.1246263288159886</v>
+        <v>0.137268635608987</v>
       </c>
       <c r="J7">
-        <v>0.1357693227128203</v>
+        <v>0.1542051155423868</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N7">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O7">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P7">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q7">
-        <v>35.99105879661045</v>
+        <v>33.95207899015177</v>
       </c>
       <c r="R7">
-        <v>323.919529169494</v>
+        <v>305.5687109113659</v>
       </c>
       <c r="S7">
-        <v>0.03659657457541909</v>
+        <v>0.03716601736665064</v>
       </c>
       <c r="T7">
-        <v>0.0419761974282819</v>
+        <v>0.04456430200832883</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,14 +900,14 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8">
         <v>3</v>
       </c>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H8">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I8">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J8">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N8">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O8">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P8">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q8">
-        <v>18.83887164850833</v>
+        <v>10.064398882938</v>
       </c>
       <c r="R8">
-        <v>113.03322989105</v>
+        <v>60.38639329762801</v>
       </c>
       <c r="S8">
-        <v>0.01915581797961202</v>
+        <v>0.01101710513151999</v>
       </c>
       <c r="T8">
-        <v>0.01464778979528702</v>
+        <v>0.008806783456601353</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H9">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I9">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J9">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>174.766479</v>
       </c>
       <c r="O9">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P9">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q9">
-        <v>73.21618324981833</v>
+        <v>28.49697544029367</v>
       </c>
       <c r="R9">
-        <v>658.945649248365</v>
+        <v>256.472778962643</v>
       </c>
       <c r="S9">
-        <v>0.07444797680366858</v>
+        <v>0.03119452815888482</v>
       </c>
       <c r="T9">
-        <v>0.08539167965042141</v>
+        <v>0.03740412539136532</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H10">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I10">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J10">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N10">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O10">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P10">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q10">
-        <v>100.7697983062983</v>
+        <v>29.12325103852433</v>
       </c>
       <c r="R10">
-        <v>906.9281847566849</v>
+        <v>262.109259346719</v>
       </c>
       <c r="S10">
-        <v>0.1024651555684074</v>
+        <v>0.03188008764308907</v>
       </c>
       <c r="T10">
-        <v>0.1175273273403029</v>
+        <v>0.03822615266421932</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H11">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I11">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J11">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N11">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O11">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P11">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q11">
-        <v>32.31081562757667</v>
+        <v>15.541119496326</v>
       </c>
       <c r="R11">
-        <v>193.86489376546</v>
+        <v>93.24671697795601</v>
       </c>
       <c r="S11">
-        <v>0.03285441476977576</v>
+        <v>0.01701225769606585</v>
       </c>
       <c r="T11">
-        <v>0.02512263177208346</v>
+        <v>0.01359915039827538</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H12">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I12">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J12">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N12">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O12">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P12">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q12">
-        <v>14.73738868507333</v>
+        <v>15.39204439080011</v>
       </c>
       <c r="R12">
-        <v>132.63649816566</v>
+        <v>138.528399517201</v>
       </c>
       <c r="S12">
-        <v>0.01498533141545192</v>
+        <v>0.01684907098922184</v>
       </c>
       <c r="T12">
-        <v>0.0171881449922842</v>
+        <v>0.02020305486907545</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.256811666666667</v>
+        <v>0.4891723333333334</v>
       </c>
       <c r="H13">
-        <v>3.770435</v>
+        <v>1.467517</v>
       </c>
       <c r="I13">
-        <v>0.3453087615423538</v>
+        <v>0.1480337686585325</v>
       </c>
       <c r="J13">
-        <v>0.3761832441572612</v>
+        <v>0.1662984723268383</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N13">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O13">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P13">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q13">
-        <v>99.72233040745057</v>
+        <v>36.61473128516544</v>
       </c>
       <c r="R13">
-        <v>897.5009736670551</v>
+        <v>329.532581566489</v>
       </c>
       <c r="S13">
-        <v>0.1014000650054382</v>
+        <v>0.04008071903975098</v>
       </c>
       <c r="T13">
-        <v>0.1163056706068822</v>
+        <v>0.04805920554730145</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H14">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I14">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J14">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N14">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O14">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P14">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q14">
-        <v>13.432869178155</v>
+        <v>22.401271559403</v>
       </c>
       <c r="R14">
-        <v>53.73147671262</v>
+        <v>89.605086237612</v>
       </c>
       <c r="S14">
-        <v>0.01365886459240525</v>
+        <v>0.02452179874031647</v>
       </c>
       <c r="T14">
-        <v>0.006962973428569928</v>
+        <v>0.01306805304988692</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H15">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I15">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J15">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>174.766479</v>
       </c>
       <c r="O15">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P15">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q15">
-        <v>52.206067840401</v>
+        <v>63.4283768841745</v>
       </c>
       <c r="R15">
-        <v>313.236407042406</v>
+        <v>380.570261305047</v>
       </c>
       <c r="S15">
-        <v>0.05308438592505525</v>
+        <v>0.06943257164014842</v>
       </c>
       <c r="T15">
-        <v>0.04059178925534199</v>
+        <v>0.05550256768634323</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H16">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I16">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J16">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N16">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O16">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P16">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q16">
-        <v>71.852897721969</v>
+        <v>64.8223369120085</v>
       </c>
       <c r="R16">
-        <v>431.117386331814</v>
+        <v>388.934021472051</v>
       </c>
       <c r="S16">
-        <v>0.07306175527655344</v>
+        <v>0.07095848534392846</v>
       </c>
       <c r="T16">
-        <v>0.0558677908980284</v>
+        <v>0.05672234288157161</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H17">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I17">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J17">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N17">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O17">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P17">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q17">
-        <v>23.038904211606</v>
+        <v>34.591319583381</v>
       </c>
       <c r="R17">
-        <v>92.155616846424</v>
+        <v>138.365278333524</v>
       </c>
       <c r="S17">
-        <v>0.02342651214793884</v>
+        <v>0.03786576912548451</v>
       </c>
       <c r="T17">
-        <v>0.01194229436177788</v>
+        <v>0.02017926518959008</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H18">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I18">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J18">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N18">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O18">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P18">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q18">
-        <v>10.508347735884</v>
+        <v>34.25950921293817</v>
       </c>
       <c r="R18">
-        <v>63.05008641530399</v>
+        <v>205.557055277629</v>
       </c>
       <c r="S18">
-        <v>0.01068514082216811</v>
+        <v>0.03750254924743551</v>
       </c>
       <c r="T18">
-        <v>0.008170556687411628</v>
+        <v>0.02997854938751279</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.896157</v>
+        <v>1.0887965</v>
       </c>
       <c r="H19">
-        <v>1.792314</v>
+        <v>2.177593</v>
       </c>
       <c r="I19">
-        <v>0.2462189618578582</v>
+        <v>0.3294925698248536</v>
       </c>
       <c r="J19">
-        <v>0.1788224687783976</v>
+        <v>0.2467640165324263</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N19">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O19">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P19">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q19">
-        <v>71.10601120370701</v>
+        <v>81.49682342023016</v>
       </c>
       <c r="R19">
-        <v>426.636067222242</v>
+        <v>488.9809405213809</v>
       </c>
       <c r="S19">
-        <v>0.07230230309373729</v>
+        <v>0.08921139572754024</v>
       </c>
       <c r="T19">
-        <v>0.05528706414726774</v>
+        <v>0.07131323833752168</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H20">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I20">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J20">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.989415</v>
+        <v>20.574342</v>
       </c>
       <c r="N20">
-        <v>29.97883</v>
+        <v>41.148684</v>
       </c>
       <c r="O20">
-        <v>0.05547446260572933</v>
+        <v>0.07442291871210138</v>
       </c>
       <c r="P20">
-        <v>0.03893791130463959</v>
+        <v>0.05295769307665528</v>
       </c>
       <c r="Q20">
-        <v>0.7468226200166667</v>
+        <v>26.189004492546</v>
       </c>
       <c r="R20">
-        <v>4.4809357201</v>
+        <v>157.134026955276</v>
       </c>
       <c r="S20">
-        <v>0.0007593872095428268</v>
+        <v>0.02866808233061622</v>
       </c>
       <c r="T20">
-        <v>0.0005806770679514566</v>
+        <v>0.02291650939042312</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H21">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I21">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J21">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>174.766479</v>
       </c>
       <c r="O21">
-        <v>0.2155982850569436</v>
+        <v>0.2107257583291067</v>
       </c>
       <c r="P21">
-        <v>0.2269949046819425</v>
+        <v>0.2249216416002446</v>
       </c>
       <c r="Q21">
-        <v>2.902482846236667</v>
+        <v>74.15320343622567</v>
       </c>
       <c r="R21">
-        <v>26.12234561613</v>
+        <v>667.378830926031</v>
       </c>
       <c r="S21">
-        <v>0.002951314395512545</v>
+        <v>0.08117262119656789</v>
       </c>
       <c r="T21">
-        <v>0.003385151675429622</v>
+        <v>0.09733088079158701</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H22">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I22">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J22">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.178917</v>
+        <v>59.53576899999999</v>
       </c>
       <c r="N22">
-        <v>240.536751</v>
+        <v>178.607307</v>
       </c>
       <c r="O22">
-        <v>0.2967348847759819</v>
+        <v>0.2153568603433074</v>
       </c>
       <c r="P22">
-        <v>0.3124204205415681</v>
+        <v>0.2298647253300724</v>
       </c>
       <c r="Q22">
-        <v>3.994780907996666</v>
+        <v>75.78286206228033</v>
       </c>
       <c r="R22">
-        <v>35.95302817197</v>
+        <v>682.0457585605229</v>
       </c>
       <c r="S22">
-        <v>0.00406198934680212</v>
+        <v>0.08295654496792892</v>
       </c>
       <c r="T22">
-        <v>0.004659093610566175</v>
+        <v>0.0994699132556386</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H23">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I23">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J23">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>25.708558</v>
+        <v>31.770234</v>
       </c>
       <c r="N23">
-        <v>51.417116</v>
+        <v>63.540468</v>
       </c>
       <c r="O23">
-        <v>0.09514503664207198</v>
+        <v>0.1149214658940947</v>
       </c>
       <c r="P23">
-        <v>0.0667829632560165</v>
+        <v>0.08177555817559162</v>
       </c>
       <c r="Q23">
-        <v>1.280886054753333</v>
+        <v>40.44021436774201</v>
       </c>
       <c r="R23">
-        <v>7.68531632852</v>
+        <v>242.641286206452</v>
       </c>
       <c r="S23">
-        <v>0.001302435760234133</v>
+        <v>0.0442683262470772</v>
       </c>
       <c r="T23">
-        <v>0.0009959274648610344</v>
+        <v>0.03538693319071588</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H24">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I24">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J24">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.726012</v>
+        <v>31.46548433333334</v>
       </c>
       <c r="N24">
-        <v>35.178036</v>
+        <v>94.39645300000001</v>
       </c>
       <c r="O24">
-        <v>0.04339690469630291</v>
+        <v>0.1138191045320704</v>
       </c>
       <c r="P24">
-        <v>0.04569088405516221</v>
+        <v>0.121486713536183</v>
       </c>
       <c r="Q24">
-        <v>0.5842290045466666</v>
+        <v>40.05229963445745</v>
       </c>
       <c r="R24">
-        <v>5.258061040919999</v>
+        <v>360.470696710117</v>
       </c>
       <c r="S24">
-        <v>0.0005940581091220504</v>
+        <v>0.04384369111005907</v>
       </c>
       <c r="T24">
-        <v>0.0006813834562846777</v>
+        <v>0.05257123658188276</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.04982333333333333</v>
+        <v>1.272896333333333</v>
       </c>
       <c r="H25">
-        <v>0.14947</v>
+        <v>3.818689</v>
       </c>
       <c r="I25">
-        <v>0.01368895116551157</v>
+        <v>0.3852050259076269</v>
       </c>
       <c r="J25">
-        <v>0.01491289718671342</v>
+        <v>0.4327323955983485</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.34548433333335</v>
+        <v>74.85037233333333</v>
       </c>
       <c r="N25">
-        <v>238.036453</v>
+        <v>224.551117</v>
       </c>
       <c r="O25">
-        <v>0.2936504262229702</v>
+        <v>0.2707538921893195</v>
       </c>
       <c r="P25">
-        <v>0.3091729161606711</v>
+        <v>0.2889936682812531</v>
       </c>
       <c r="Q25">
-        <v>3.953256514434445</v>
+        <v>95.27676449173477</v>
       </c>
       <c r="R25">
-        <v>35.57930862991</v>
+        <v>857.4908804256129</v>
       </c>
       <c r="S25">
-        <v>0.004019766344297898</v>
+        <v>0.1042957600553776</v>
       </c>
       <c r="T25">
-        <v>0.004610663911620457</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H26">
-        <v>2.949851</v>
-      </c>
-      <c r="I26">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J26">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>14.989415</v>
-      </c>
-      <c r="N26">
-        <v>29.97883</v>
-      </c>
-      <c r="O26">
-        <v>0.05547446260572933</v>
-      </c>
-      <c r="P26">
-        <v>0.03893791130463959</v>
-      </c>
-      <c r="Q26">
-        <v>14.73884694238833</v>
-      </c>
-      <c r="R26">
-        <v>88.43308165433</v>
-      </c>
-      <c r="S26">
-        <v>0.01498681420657735</v>
-      </c>
-      <c r="T26">
-        <v>0.0114598971671484</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H27">
-        <v>2.949851</v>
-      </c>
-      <c r="I27">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J27">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>58.255493</v>
-      </c>
-      <c r="N27">
-        <v>174.766479</v>
-      </c>
-      <c r="O27">
-        <v>0.2155982850569436</v>
-      </c>
-      <c r="P27">
-        <v>0.2269949046819425</v>
-      </c>
-      <c r="Q27">
-        <v>57.28167476051433</v>
-      </c>
-      <c r="R27">
-        <v>515.535072844629</v>
-      </c>
-      <c r="S27">
-        <v>0.05824538516703737</v>
-      </c>
-      <c r="T27">
-        <v>0.06680733963282093</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H28">
-        <v>2.949851</v>
-      </c>
-      <c r="I28">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J28">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>80.178917</v>
-      </c>
-      <c r="N28">
-        <v>240.536751</v>
-      </c>
-      <c r="O28">
-        <v>0.2967348847759819</v>
-      </c>
-      <c r="P28">
-        <v>0.3124204205415681</v>
-      </c>
-      <c r="Q28">
-        <v>78.83861949712232</v>
-      </c>
-      <c r="R28">
-        <v>709.5475754741009</v>
-      </c>
-      <c r="S28">
-        <v>0.08016500526295296</v>
-      </c>
-      <c r="T28">
-        <v>0.0919490997940874</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H29">
-        <v>2.949851</v>
-      </c>
-      <c r="I29">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J29">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>25.708558</v>
-      </c>
-      <c r="N29">
-        <v>51.417116</v>
-      </c>
-      <c r="O29">
-        <v>0.09514503664207198</v>
-      </c>
-      <c r="P29">
-        <v>0.0667829632560165</v>
-      </c>
-      <c r="Q29">
-        <v>25.27880517495266</v>
-      </c>
-      <c r="R29">
-        <v>151.672831049716</v>
-      </c>
-      <c r="S29">
-        <v>0.02570409734235911</v>
-      </c>
-      <c r="T29">
-        <v>0.0196550319672696</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H30">
-        <v>2.949851</v>
-      </c>
-      <c r="I30">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J30">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>11.726012</v>
-      </c>
-      <c r="N30">
-        <v>35.178036</v>
-      </c>
-      <c r="O30">
-        <v>0.04339690469630291</v>
-      </c>
-      <c r="P30">
-        <v>0.04569088405516221</v>
-      </c>
-      <c r="Q30">
-        <v>11.52999607473733</v>
-      </c>
-      <c r="R30">
-        <v>103.769964672636</v>
-      </c>
-      <c r="S30">
-        <v>0.01172397743528326</v>
-      </c>
-      <c r="T30">
-        <v>0.01344737853686233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.9832836666666666</v>
-      </c>
-      <c r="H31">
-        <v>2.949851</v>
-      </c>
-      <c r="I31">
-        <v>0.2701569966182878</v>
-      </c>
-      <c r="J31">
-        <v>0.2943120671648075</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>79.34548433333335</v>
-      </c>
-      <c r="N31">
-        <v>238.036453</v>
-      </c>
-      <c r="O31">
-        <v>0.2936504262229702</v>
-      </c>
-      <c r="P31">
-        <v>0.3091729161606711</v>
-      </c>
-      <c r="Q31">
-        <v>78.01911876872256</v>
-      </c>
-      <c r="R31">
-        <v>702.172068918503</v>
-      </c>
-      <c r="S31">
-        <v>0.07933171720407772</v>
-      </c>
-      <c r="T31">
-        <v>0.09099332006661884</v>
+        <v>0.1250569223881011</v>
       </c>
     </row>
   </sheetData>
